--- a/Sezione 4/df5.xlsx
+++ b/Sezione 4/df5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinaporcu/R_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinaporcu/Dropbox/topic/1. Coding in R per l'analisi dati - da principiante a esperto/_R coding for data analysts - from beginner to advanced/CODE - coding in R for data analysis/coding-in-R-for-data-analysis/Sezione 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBB4CC-5AED-5244-9433-00E84B242687}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5723299-3372-E245-B7C9-B8C27C263638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="23960" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="100">
   <si>
     <t>var1</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -384,9 +387,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,9 +427,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,26 +462,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,26 +497,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2434,15 +2403,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8484E358-CFDE-F045-83BC-82DAEBE9002C}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2470,7 +2439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2497,8 +2466,11 @@
       <c r="D4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2512,7 +2484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2526,7 +2498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2540,7 +2512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2554,7 +2526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2568,7 +2540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2582,7 +2554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2596,7 +2568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2610,7 +2582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2624,7 +2596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2638,7 +2610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2652,7 +2624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
